--- a/class_23_api_test_v1/data/cases.xlsx
+++ b/class_23_api_test_v1/data/cases.xlsx
@@ -55,7 +55,7 @@
     <t>/api/v1/user/login</t>
   </si>
   <si>
-    <t>{"tel":"","password":"","openid":"","smsCode":"","SC":""}</t>
+    <t>{"tel":""}</t>
   </si>
   <si>
     <t>headers = {
@@ -63,11 +63,7 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "status":"error",
-    "code":400,
-    "message":"请输入手机号"
-}</t>
+    <t>{'code': 400, 'message': '请输入手机号', 'status': 'error'}</t>
   </si>
   <si>
     <t>pass</t>
@@ -77,7 +73,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="\js\o\n"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -93,6 +90,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -100,14 +104,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,25 +147,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,31 +179,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,33 +209,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,31 +242,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,151 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,63 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,6 +462,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -544,10 +541,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,142 +553,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,8 +1046,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1054,7 +1057,7 @@
     <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="59.125" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1086,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="94.5" spans="1:9">
+    <row r="2" ht="67.5" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1102,13 +1105,13 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">

--- a/class_23_api_test_v1/data/cases.xlsx
+++ b/class_23_api_test_v1/data/cases.xlsx
@@ -74,11 +74,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="\js\o\n"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\js\o\n"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,6 +90,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -97,43 +104,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,14 +142,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -180,7 +158,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +173,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +194,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -227,7 +220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,11 +453,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,21 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -512,9 +495,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +518,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,145 +541,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,8 +1046,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1055,9 +1055,9 @@
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="59.125" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="41.25" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="61.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/class_23_api_test_v1/data/cases.xlsx
+++ b/class_23_api_test_v1/data/cases.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="login_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>case_id</t>
   </si>
@@ -55,7 +55,7 @@
     <t>/api/v1/user/login</t>
   </si>
   <si>
-    <t>{"tel":""}</t>
+    <t>{"tel": ""}</t>
   </si>
   <si>
     <t>headers = {
@@ -63,10 +63,46 @@
 }</t>
   </si>
   <si>
-    <t>{'code': 400, 'message': '请输入手机号', 'status': 'error'}</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t>请输入手机号</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"tel":"15812410167", "password": ""}</t>
+  </si>
+  <si>
+    <t>账号密码不正确，请重新输入</t>
+  </si>
+  <si>
+    <t>小于11位的手机号</t>
+  </si>
+  <si>
+    <t>{"tel":"1"}</t>
+  </si>
+  <si>
+    <t>该手机号未注册</t>
+  </si>
+  <si>
+    <t>大于11位的手机号</t>
+  </si>
+  <si>
+    <t>{"tel":"1111111111111"}</t>
+  </si>
+  <si>
+    <t>错误的手机号</t>
+  </si>
+  <si>
+    <t>{"tel":"abc123"}</t>
+  </si>
+  <si>
+    <t>请输入正确的手机号</t>
+  </si>
+  <si>
+    <t>错误的密码</t>
+  </si>
+  <si>
+    <t>{"tel":"15812410167", "password": "12345"}</t>
   </si>
 </sst>
 </file>
@@ -74,11 +110,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="\js\o\n"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\js\o\n"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,16 +146,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,6 +161,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -157,28 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -194,14 +215,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -220,14 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,30 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,19 +499,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +559,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,149 +577,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -692,9 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1044,20 +1077,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="64.125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="61.25" customWidth="1"/>
+    <col min="8" max="8" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1089,7 +1122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="67.5" spans="1:9">
+    <row r="2" ht="67.5" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1111,11 +1144,138 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" ht="67.5" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/class_23_api_test_v1/data/cases.xlsx
+++ b/class_23_api_test_v1/data/cases.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9840" windowWidth="23325"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23325" windowHeight="9840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login_sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login_sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="\js\o\n" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="\js\o\n"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -494,233 +494,233 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="24" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="20" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="15" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="15" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="26" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1022,16 +1022,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="8.25"/>
-    <col customWidth="1" max="2" min="2" style="3" width="10.375"/>
-    <col customWidth="1" max="3" min="3" style="3" width="16.625"/>
-    <col customWidth="1" max="5" min="5" style="3" width="19.25"/>
-    <col customWidth="1" max="6" min="6" style="3" width="64.125"/>
-    <col customWidth="1" max="7" min="7" style="3" width="22"/>
-    <col customWidth="1" max="8" min="8" style="3" width="38.625"/>
+    <col width="8.25" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.375" customWidth="1" style="3" min="2" max="2"/>
+    <col width="16.625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="19.25" customWidth="1" style="3" min="5" max="5"/>
+    <col width="64.125" customWidth="1" style="3" min="6" max="6"/>
+    <col width="22" customWidth="1" style="3" min="7" max="7"/>
+    <col width="38.625" customWidth="1" style="3" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1">
+    <row r="1" customFormat="1" s="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="67.5" r="2" s="7">
+    <row r="2" ht="67.5" customFormat="1" customHeight="1" s="7">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="67.5" r="3" s="7">
+    <row r="3" ht="67.5" customFormat="1" customHeight="1" s="7">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="67.5" r="4" s="7">
+    <row r="4" ht="67.5" customFormat="1" customHeight="1" s="7">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="67.5" r="5" s="7">
+    <row r="5" ht="67.5" customFormat="1" customHeight="1" s="7">
       <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="67.5" r="6" s="7">
+    <row r="6" ht="67.5" customFormat="1" customHeight="1" s="7">
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="67.5" r="7" s="7">
+    <row r="7" ht="67.5" customFormat="1" customHeight="1" s="7">
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>